--- a/xls/nome_municipios_shapefile.xlsx
+++ b/xls/nome_municipios_shapefile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\SPAECE_preliminar_2024\Coleta de Dados SPAECE 2024\mapas_spaece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\SPAECE_preliminar_2024\Coleta de Dados SPAECE 2024\mapas_spaece\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1807A18F-75ED-479C-89A2-652008F8312E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7868DF48-FF00-4E0C-9262-8FBC754C7E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
     <t>Viçosa do Ceará</t>
   </si>
   <si>
-    <t>nome</t>
+    <t>NM_MUN</t>
   </si>
 </sst>
 </file>
@@ -942,7 +942,7 @@
   <dimension ref="A1:A185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
